--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -13,15 +13,166 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>题目</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>时间复杂度</t>
+  </si>
+  <si>
+    <t>空间复杂度</t>
+  </si>
+  <si>
+    <t>想法</t>
+  </si>
+  <si>
+    <t>两数之和</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+  </si>
+  <si>
+    <t>O(N)</t>
+  </si>
+  <si>
+    <t>使用额外空间保存已经存在的元素，通过需要寻找的差值来判断缓存中是否存在目标值</t>
+  </si>
+  <si>
+    <t>删除有序数组中的重复项</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/remove-duplicates-from-sorted-array/</t>
+  </si>
+  <si>
+    <t>双指针</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>通过快慢指针来判断是否重复，然后通过指针下标进行元素更新，进行删除操作</t>
+  </si>
+  <si>
+    <t>移除元素</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/remove-element/</t>
+  </si>
+  <si>
+    <t>通过快慢指针来判断是否指定元素，然后通过指针下标进行元素更新，进行删除操作</t>
+  </si>
+  <si>
+    <t>搜索插入位置</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/search-insert-position/</t>
+  </si>
+  <si>
+    <t>二分查找</t>
+  </si>
+  <si>
+    <t>O(log n)</t>
+  </si>
+  <si>
+    <t>二分查找类似二叉树，可以达到对应的是件复杂度，注意左右边界的确认</t>
+  </si>
+  <si>
+    <t>加一</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/plus-one/</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>数学知识</t>
+  </si>
+  <si>
+    <t>合并两个有序数组</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/merge-sorted-array/</t>
+  </si>
+  <si>
+    <t>因为题目不要求空间复杂度，可以先创建一个临时数组保存数据</t>
+  </si>
+  <si>
+    <t>将有序数组转换为二叉搜索树</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>递归</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二叉搜索树的中序遍历是升序序列，选择中间数字作为二叉搜索树的根节点，这样分给左右子树的数字个数相同或只相差 1，可以使得树保持平衡。如果数组长度是奇数，则根节点的选择是唯一的，如果数组长度是偶数，则可以选择中间位置左边的数字作为根节点或者选择中间位置右边的数字作为根节点
+</t>
+  </si>
+  <si>
+    <t>杨辉三角</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/pascals-triangle/</t>
+  </si>
+  <si>
+    <t>O(N2)</t>
+  </si>
+  <si>
+    <t>可以将所有条件都集合在一起判断，比较简洁</t>
+  </si>
+  <si>
+    <t>杨辉三角 II</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/pascals-triangle-ii/</t>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>贪心算法</t>
+  </si>
+  <si>
+    <t>暴力解法会超时。保持在最便宜的时候买入，最贵的时候卖出。</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +181,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF262626"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -37,6 +202,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -52,22 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,29 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -122,15 +265,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +289,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +325,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,19 +348,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,13 +420,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,145 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +561,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -406,30 +595,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,16 +626,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,154 +644,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -947,14 +1124,320 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="10.9230769230769" style="1"/>
+    <col min="4" max="4" width="47.2692307692308" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.4903846153846" customWidth="1"/>
+    <col min="6" max="7" width="12.8173076923077" customWidth="1"/>
+    <col min="8" max="8" width="83.8076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="63" spans="1:8">
+      <c r="A2" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="29" customHeight="1" spans="1:8">
+      <c r="A3" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="78" spans="1:8">
+      <c r="A4" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="42" customHeight="1" spans="1:8">
+      <c r="A5" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="63" spans="1:8">
+      <c r="A6" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="46" customHeight="1" spans="1:8">
+      <c r="A7" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="73" customHeight="1" spans="1:8">
+      <c r="A8" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="78" spans="1:8">
+      <c r="A9" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="32" spans="1:8">
+      <c r="A10" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="47" spans="1:8">
+      <c r="A11" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="删除有序数组中的重复项" tooltip="https://leetcode.cn/problems/remove-duplicates-from-sorted-array/"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-array/"/>
+    <hyperlink ref="B4" r:id="rId2" display="移除元素" tooltip="https://leetcode.cn/problems/remove-element/"/>
+    <hyperlink ref="B5" r:id="rId3" display="搜索插入位置" tooltip="https://leetcode.cn/problems/search-insert-position/"/>
+    <hyperlink ref="B6" r:id="rId4" display="加一" tooltip="https://leetcode.cn/problems/plus-one/"/>
+    <hyperlink ref="B7" r:id="rId5" display="合并两个有序数组" tooltip="https://leetcode.cn/problems/merge-sorted-array/"/>
+    <hyperlink ref="B8" r:id="rId6" display="将有序数组转换为二叉搜索树" tooltip="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/"/>
+    <hyperlink ref="B9" r:id="rId7" display="杨辉三角" tooltip="https://leetcode.cn/problems/pascals-triangle/"/>
+    <hyperlink ref="B10" r:id="rId8" display="杨辉三角 II" tooltip="https://leetcode.cn/problems/pascals-triangle-ii/"/>
+    <hyperlink ref="B11" r:id="rId9" display="买卖股票的最佳时机" tooltip="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>日期</t>
   </si>
@@ -159,6 +159,57 @@
   </si>
   <si>
     <t>暴力解法会超时。保持在最便宜的时候买入，最贵的时候卖出。</t>
+  </si>
+  <si>
+    <t>只出现一次的数字</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/single-number/</t>
+  </si>
+  <si>
+    <t>位运算</t>
+  </si>
+  <si>
+    <t>两个相同的数异或，结果为0，最后剩下的数就是唯一的数</t>
+  </si>
+  <si>
+    <t>多数元素</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/majority-element/</t>
+  </si>
+  <si>
+    <t>哈希表、排序</t>
+  </si>
+  <si>
+    <t>用哈希表存储对应元素出现的次数，遍历过程中进行判断；排序算法是利用排序后的数组中连续出现超过数组一半长度的元素就为多数元素</t>
+  </si>
+  <si>
+    <t>存在重复元素</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/contains-duplicate/</t>
+  </si>
+  <si>
+    <t>用哈希表存储出现的对应元素，遍历过程中进行判断；排序算法是利用排序后的数组中连续出现相同的元素</t>
+  </si>
+  <si>
+    <t>存在重复元素 II</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/contains-duplicate-ii/</t>
+  </si>
+  <si>
+    <t>暴力解法会超时。用哈希表存储对应元素出现的下标，然后进行判断，如果不满足间距则更新下标</t>
+  </si>
+  <si>
+    <t>汇总区间</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/summary-ranges/solution/</t>
+  </si>
+  <si>
+    <t>从数组的位置 00 出发，向右遍历。每次遇到相邻元素之间的差值大于 11 时，我们就找到了一个区间。遍历完数组之后，就能得到一系列的区间的列表。</t>
   </si>
 </sst>
 </file>
@@ -167,12 +218,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,15 +246,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,9 +278,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,6 +323,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -247,80 +369,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,8 +390,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,187 +407,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,63 +610,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,6 +624,33 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,90 +680,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,7 +802,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,57 +811,60 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -799,11 +873,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1124,23 +1219,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.9230769230769" style="1"/>
-    <col min="4" max="4" width="47.2692307692308" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.4903846153846" customWidth="1"/>
+    <col min="1" max="1" width="10.9230769230769" style="2"/>
+    <col min="4" max="4" width="47.2692307692308" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.8653846153846" customWidth="1"/>
     <col min="6" max="7" width="12.8173076923077" customWidth="1"/>
-    <col min="8" max="8" width="83.8076923076923" customWidth="1"/>
+    <col min="8" max="8" width="9.23076923076923" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1149,7 +1244,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1161,12 +1256,12 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="63" spans="1:8">
-      <c r="A2" s="1">
+    <row r="2" ht="156" spans="1:8">
+      <c r="A2" s="2">
         <v>44084</v>
       </c>
       <c r="B2" t="s">
@@ -1175,7 +1270,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
@@ -1184,24 +1279,24 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="29" customHeight="1" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>44084</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
@@ -1210,24 +1305,24 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="78" spans="1:8">
-      <c r="A4" s="1">
+    <row r="4" ht="156" spans="1:8">
+      <c r="A4" s="2">
         <v>44084</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
@@ -1236,50 +1331,50 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>44084</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="63" spans="1:8">
-      <c r="A6" s="1">
+    <row r="6" ht="17.6" spans="1:8">
+      <c r="A6" s="2">
         <v>44084</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
@@ -1288,24 +1383,24 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" ht="46" customHeight="1" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>44084</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
@@ -1314,24 +1409,24 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" ht="73" customHeight="1" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>44084</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" t="s">
@@ -1340,24 +1435,24 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="78" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>44085</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E9" t="s">
@@ -1366,24 +1461,24 @@
       <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" ht="32" spans="1:8">
-      <c r="A10" s="1">
+    <row r="10" ht="78" spans="1:8">
+      <c r="A10" s="2">
         <v>44085</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E10" t="s">
@@ -1392,37 +1487,167 @@
       <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="47" spans="1:8">
-      <c r="A11" s="1">
+    <row r="11" s="1" customFormat="1" ht="110" spans="1:8">
+      <c r="A11" s="4">
         <v>44085</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="110" spans="1:8">
+      <c r="A12" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:8">
+      <c r="A13" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" ht="188" spans="1:8">
+      <c r="A14" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" ht="172" spans="1:8">
+      <c r="A15" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="266" spans="1:8">
+      <c r="A16" s="4">
+        <v>44086</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1437,6 +1662,11 @@
     <hyperlink ref="B9" r:id="rId7" display="杨辉三角" tooltip="https://leetcode.cn/problems/pascals-triangle/"/>
     <hyperlink ref="B10" r:id="rId8" display="杨辉三角 II" tooltip="https://leetcode.cn/problems/pascals-triangle-ii/"/>
     <hyperlink ref="B11" r:id="rId9" display="买卖股票的最佳时机" tooltip="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/"/>
+    <hyperlink ref="B12" r:id="rId10" display="只出现一次的数字" tooltip="https://leetcode.cn/problems/single-number/"/>
+    <hyperlink ref="B13" r:id="rId11" display="多数元素" tooltip="https://leetcode.cn/problems/majority-element/"/>
+    <hyperlink ref="B14" r:id="rId12" display="存在重复元素" tooltip="https://leetcode.cn/problems/contains-duplicate/"/>
+    <hyperlink ref="B15" r:id="rId13" display="存在重复元素 II" tooltip="https://leetcode.cn/problems/contains-duplicate-ii/"/>
+    <hyperlink ref="B16" r:id="rId14" display="汇总区间" tooltip="https://leetcode.cn/problems/summary-ranges/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
